--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_General.xlsx
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -535,13 +535,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,19 +651,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.266969000354948E-08</v>
+        <v>0.005028717609074862</v>
       </c>
       <c r="D2">
-        <v>2.155471734432979E-07</v>
+        <v>0.007001104705730343</v>
       </c>
       <c r="E2">
-        <v>4.4555544388869E-05</v>
+        <v>0.02125018373255627</v>
       </c>
       <c r="F2">
-        <v>0.001089157496585669</v>
+        <v>0.04943003968366444</v>
       </c>
       <c r="G2">
-        <v>1.030359131348746E-07</v>
+        <v>0.005944189703441571</v>
       </c>
       <c r="H2">
-        <v>1.126373616600063E-07</v>
+        <v>0.005852768740049141</v>
       </c>
       <c r="I2">
-        <v>1.28056462989079E-07</v>
+        <v>0.007308422022619165</v>
       </c>
       <c r="J2">
-        <v>0.00149678490601346</v>
+        <v>0.05908350867441703</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.266969000354948E-08</v>
+        <v>0.005028717609074862</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.034179414638459E-05</v>
       </c>
       <c r="E3">
-        <v>3.349314159351025E-10</v>
+        <v>0.0003475271253374768</v>
       </c>
       <c r="F3">
-        <v>4.891871507872736E-08</v>
+        <v>0.004262915406137324</v>
       </c>
       <c r="G3">
-        <v>1.366629185461932E-05</v>
+        <v>0.005106953696461858</v>
       </c>
       <c r="H3">
-        <v>4.255073214443073E-06</v>
+        <v>0.005726811050846381</v>
       </c>
       <c r="I3">
-        <v>0.0144244573019694</v>
+        <v>0.07032043600425908</v>
       </c>
       <c r="J3">
-        <v>3.774758283725532E-15</v>
+        <v>0.0002329964007945495</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.155471734432979E-07</v>
+        <v>0.007001104705730343</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.034179414638459E-05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.195875998227791E-07</v>
+        <v>0.00103288146616709</v>
       </c>
       <c r="F4">
-        <v>2.971600765455662E-07</v>
+        <v>0.006224403040201221</v>
       </c>
       <c r="G4">
-        <v>0.001703192704789247</v>
+        <v>0.02237620212689739</v>
       </c>
       <c r="H4">
-        <v>0.001143092703251192</v>
+        <v>0.02740555201311223</v>
       </c>
       <c r="I4">
-        <v>0.4054854429838035</v>
+        <v>0.5212429128041012</v>
       </c>
       <c r="J4">
-        <v>1.56319401867222E-13</v>
+        <v>0.0003773948068874766</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.4555544388869E-05</v>
+        <v>0.02125018373255627</v>
       </c>
       <c r="C5">
-        <v>3.349314159351025E-10</v>
+        <v>0.0003475271253374768</v>
       </c>
       <c r="D5">
-        <v>1.195875998227791E-07</v>
+        <v>0.00103288146616709</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>8.126376934103341E-05</v>
+        <v>0.02234541566585713</v>
       </c>
       <c r="G5">
-        <v>0.1580448955364917</v>
+        <v>0.1304225603348284</v>
       </c>
       <c r="H5">
-        <v>0.0566651409226393</v>
+        <v>0.05504241534761856</v>
       </c>
       <c r="I5">
-        <v>0.003112365664067474</v>
+        <v>0.03742379444293831</v>
       </c>
       <c r="J5">
-        <v>1.228920505602638E-05</v>
+        <v>0.002645474255317248</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001089157496585669</v>
+        <v>0.04943003968366444</v>
       </c>
       <c r="C6">
-        <v>4.891871507872736E-08</v>
+        <v>0.004262915406137324</v>
       </c>
       <c r="D6">
-        <v>2.971600765455662E-07</v>
+        <v>0.006224403040201221</v>
       </c>
       <c r="E6">
-        <v>8.126376934103341E-05</v>
+        <v>0.02234541566585713</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7607455061206E-07</v>
+        <v>0.005085566982925727</v>
       </c>
       <c r="H6">
-        <v>2.885594503343469E-07</v>
+        <v>0.004990042767744951</v>
       </c>
       <c r="I6">
-        <v>1.539057645771891E-07</v>
+        <v>0.006305592455507547</v>
       </c>
       <c r="J6">
-        <v>0.008084606149374673</v>
+        <v>0.084771560727958</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.030359131348746E-07</v>
+        <v>0.005944189703441571</v>
       </c>
       <c r="C7">
-        <v>1.366629185461932E-05</v>
+        <v>0.005106953696461858</v>
       </c>
       <c r="D7">
-        <v>0.001703192704789247</v>
+        <v>0.02237620212689739</v>
       </c>
       <c r="E7">
-        <v>0.1580448955364917</v>
+        <v>0.1304225603348284</v>
       </c>
       <c r="F7">
-        <v>3.7607455061206E-07</v>
+        <v>0.005085566982925727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3212742768575632</v>
+        <v>0.2033400490351587</v>
       </c>
       <c r="I7">
-        <v>0.056116273198767</v>
+        <v>0.1658016181642061</v>
       </c>
       <c r="J7">
-        <v>1.110223024625157E-15</v>
+        <v>6.416884939630663E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.126373616600063E-07</v>
+        <v>0.005852768740049141</v>
       </c>
       <c r="C8">
-        <v>4.255073214443073E-06</v>
+        <v>0.005726811050846381</v>
       </c>
       <c r="D8">
-        <v>0.001143092703251192</v>
+        <v>0.02740555201311223</v>
       </c>
       <c r="E8">
-        <v>0.0566651409226393</v>
+        <v>0.05504241534761856</v>
       </c>
       <c r="F8">
-        <v>2.885594503343469E-07</v>
+        <v>0.004990042767744951</v>
       </c>
       <c r="G8">
-        <v>0.3212742768575632</v>
+        <v>0.2033400490351587</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.09378572034369159</v>
+        <v>0.2342488368558631</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.066635277721886E-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.28056462989079E-07</v>
+        <v>0.007308422022619165</v>
       </c>
       <c r="C9">
-        <v>0.0144244573019694</v>
+        <v>0.07032043600425908</v>
       </c>
       <c r="D9">
-        <v>0.4054854429838035</v>
+        <v>0.5212429128041012</v>
       </c>
       <c r="E9">
-        <v>0.003112365664067474</v>
+        <v>0.03742379444293831</v>
       </c>
       <c r="F9">
-        <v>1.539057645771891E-07</v>
+        <v>0.006305592455507547</v>
       </c>
       <c r="G9">
-        <v>0.056116273198767</v>
+        <v>0.1658016181642061</v>
       </c>
       <c r="H9">
-        <v>0.09378572034369159</v>
+        <v>0.2342488368558631</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>8.943593421406604E-09</v>
+        <v>0.001303516221026868</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00149678490601346</v>
+        <v>0.05908350867441703</v>
       </c>
       <c r="C10">
-        <v>3.774758283725532E-15</v>
+        <v>0.0002329964007945495</v>
       </c>
       <c r="D10">
-        <v>1.56319401867222E-13</v>
+        <v>0.0003773948068874766</v>
       </c>
       <c r="E10">
-        <v>1.228920505602638E-05</v>
+        <v>0.002645474255317248</v>
       </c>
       <c r="F10">
-        <v>0.008084606149374673</v>
+        <v>0.084771560727958</v>
       </c>
       <c r="G10">
-        <v>1.110223024625157E-15</v>
+        <v>6.416884939630663E-05</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.066635277721886E-05</v>
       </c>
       <c r="I10">
-        <v>8.943593421406604E-09</v>
+        <v>0.001303516221026868</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.509102065058149</v>
+        <v>3.116377831448006</v>
       </c>
       <c r="D2">
-        <v>5.21063367541199</v>
+        <v>2.974159401053307</v>
       </c>
       <c r="E2">
-        <v>4.095055375249855</v>
+        <v>2.480537185164833</v>
       </c>
       <c r="F2">
-        <v>3.273056606368831</v>
+        <v>2.079533862214786</v>
       </c>
       <c r="G2">
-        <v>5.348508576375586</v>
+        <v>3.044716695131391</v>
       </c>
       <c r="H2">
-        <v>5.332036305870856</v>
+        <v>3.051376050698078</v>
       </c>
       <c r="I2">
-        <v>5.308235413769882</v>
+        <v>2.955561379033963</v>
       </c>
       <c r="J2">
-        <v>3.181430626403435</v>
+        <v>1.990661243152962</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.509102065058149</v>
+        <v>-3.116377831448006</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-10.12784301617717</v>
+        <v>-5.67964545923587</v>
       </c>
       <c r="E3">
-        <v>-6.326102876466001</v>
+        <v>-4.225869615018513</v>
       </c>
       <c r="F3">
-        <v>-5.48448335825036</v>
+        <v>-3.186761764257116</v>
       </c>
       <c r="G3">
-        <v>-4.364248833661129</v>
+        <v>-3.109780918826911</v>
       </c>
       <c r="H3">
-        <v>-4.616270510347543</v>
+        <v>-3.060717104569447</v>
       </c>
       <c r="I3">
-        <v>-2.449488050957422</v>
+        <v>-1.902179684934643</v>
       </c>
       <c r="J3">
-        <v>-7.946843440084392</v>
+        <v>-4.389490135705872</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.21063367541199</v>
+        <v>-2.974159401053307</v>
       </c>
       <c r="C4">
-        <v>10.12784301617717</v>
+        <v>5.67964545923587</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-5.320940532468327</v>
+        <v>-3.778793017094997</v>
       </c>
       <c r="F4">
-        <v>-5.149619426376944</v>
+        <v>-3.024902456076612</v>
       </c>
       <c r="G4">
-        <v>-3.143552508282325</v>
+        <v>-2.456782607457124</v>
       </c>
       <c r="H4">
-        <v>-3.259267970360246</v>
+        <v>-2.362636269252887</v>
       </c>
       <c r="I4">
-        <v>-0.8321090788929099</v>
+        <v>-0.6518618050328975</v>
       </c>
       <c r="J4">
-        <v>-7.453480271185502</v>
+        <v>-4.192119868523634</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-4.095055375249855</v>
+        <v>-2.480537185164833</v>
       </c>
       <c r="C5">
-        <v>6.326102876466001</v>
+        <v>4.225869615018513</v>
       </c>
       <c r="D5">
-        <v>5.320940532468327</v>
+        <v>3.778793017094997</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.951986879872617</v>
+        <v>-2.457417157072955</v>
       </c>
       <c r="G5">
-        <v>1.412412046394385</v>
+        <v>1.571139172864607</v>
       </c>
       <c r="H5">
-        <v>1.907419962185229</v>
+        <v>2.02616217426285</v>
       </c>
       <c r="I5">
-        <v>2.961427136502947</v>
+        <v>2.214968684321045</v>
       </c>
       <c r="J5">
-        <v>-4.38772206753185</v>
+        <v>-3.388081490838152</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-3.273056606368831</v>
+        <v>-2.079533862214786</v>
       </c>
       <c r="C6">
-        <v>5.48448335825036</v>
+        <v>3.186761764257116</v>
       </c>
       <c r="D6">
-        <v>5.149619426376944</v>
+        <v>3.024902456076612</v>
       </c>
       <c r="E6">
-        <v>3.951986879872617</v>
+        <v>2.457417157072955</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.104449477078962</v>
+        <v>3.111574516354902</v>
       </c>
       <c r="H6">
-        <v>5.155227321906061</v>
+        <v>3.119675605408095</v>
       </c>
       <c r="I6">
-        <v>5.273956727775878</v>
+        <v>3.01932165680969</v>
       </c>
       <c r="J6">
-        <v>2.652208438814703</v>
+        <v>1.805059303861617</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.348508576375586</v>
+        <v>-3.044716695131391</v>
       </c>
       <c r="C7">
-        <v>4.364248833661129</v>
+        <v>3.109780918826911</v>
       </c>
       <c r="D7">
-        <v>3.143552508282325</v>
+        <v>2.456782607457124</v>
       </c>
       <c r="E7">
-        <v>-1.412412046394385</v>
+        <v>-1.571139172864607</v>
       </c>
       <c r="F7">
-        <v>-5.104449477078962</v>
+        <v>-3.111574516354902</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9921846214305542</v>
+        <v>1.311114057127361</v>
       </c>
       <c r="I7">
-        <v>1.911675456139531</v>
+        <v>1.433406177592324</v>
       </c>
       <c r="J7">
-        <v>-8.103870808407052</v>
+        <v>-4.918638627767542</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-5.332036305870856</v>
+        <v>-3.051376050698078</v>
       </c>
       <c r="C8">
-        <v>4.616270510347543</v>
+        <v>3.060717104569447</v>
       </c>
       <c r="D8">
-        <v>3.259267970360246</v>
+        <v>2.362636269252887</v>
       </c>
       <c r="E8">
-        <v>-1.907419962185229</v>
+        <v>-2.02616217426285</v>
       </c>
       <c r="F8">
-        <v>-5.155227321906061</v>
+        <v>-3.119675605408095</v>
       </c>
       <c r="G8">
-        <v>-0.9921846214305542</v>
+        <v>-1.311114057127361</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.676866821889318</v>
+        <v>1.223055507014901</v>
       </c>
       <c r="J8">
-        <v>-8.862392163029014</v>
+        <v>-5.107079812482137</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.308235413769882</v>
+        <v>-2.955561379033963</v>
       </c>
       <c r="C9">
-        <v>2.449488050957422</v>
+        <v>1.902179684934643</v>
       </c>
       <c r="D9">
-        <v>0.8321090788929099</v>
+        <v>0.6518618050328975</v>
       </c>
       <c r="E9">
-        <v>-2.961427136502947</v>
+        <v>-2.214968684321045</v>
       </c>
       <c r="F9">
-        <v>-5.273956727775878</v>
+        <v>-3.01932165680969</v>
       </c>
       <c r="G9">
-        <v>-1.911675456139531</v>
+        <v>-1.433406177592324</v>
       </c>
       <c r="H9">
-        <v>-1.676866821889318</v>
+        <v>-1.223055507014901</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-5.783830458796061</v>
+        <v>-3.682690064078619</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.181430626403435</v>
+        <v>-1.990661243152962</v>
       </c>
       <c r="C10">
-        <v>7.946843440084392</v>
+        <v>4.389490135705872</v>
       </c>
       <c r="D10">
-        <v>7.453480271185502</v>
+        <v>4.192119868523634</v>
       </c>
       <c r="E10">
-        <v>4.38772206753185</v>
+        <v>3.388081490838152</v>
       </c>
       <c r="F10">
-        <v>-2.652208438814703</v>
+        <v>-1.805059303861617</v>
       </c>
       <c r="G10">
-        <v>8.103870808407052</v>
+        <v>4.918638627767542</v>
       </c>
       <c r="H10">
-        <v>8.862392163029014</v>
+        <v>5.107079812482137</v>
       </c>
       <c r="I10">
-        <v>5.783830458796061</v>
+        <v>3.682690064078619</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>37.5</v>
       </c>
       <c r="F2">
         <v>0.5790214985339739</v>
@@ -1460,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>62.5</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>0.7764851498794437</v>
@@ -1480,16 +1480,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
         <v>0.8768703123610273</v>
@@ -1497,22 +1497,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>1.39167447515791</v>
+        <v>1.137502484051251</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
         <v>1.178219531125906</v>
@@ -1537,62 +1537,62 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.137502484051251</v>
+        <v>2.955455533854199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.721817742286819</v>
+        <v>1.39167447515791</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.955455533854199</v>
+        <v>2.721817742286819</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_General.xlsx
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005028717609074862</v>
+        <v>0.005128089196035912</v>
       </c>
       <c r="D2">
-        <v>0.007001104705730343</v>
+        <v>0.00688459818655196</v>
       </c>
       <c r="E2">
-        <v>0.02125018373255627</v>
+        <v>0.007078279598466297</v>
       </c>
       <c r="F2">
-        <v>0.04943003968366444</v>
+        <v>0.01040159672873364</v>
       </c>
       <c r="G2">
-        <v>0.005944189703441571</v>
+        <v>0.007860102838727734</v>
       </c>
       <c r="H2">
-        <v>0.005852768740049141</v>
+        <v>0.008047373663305102</v>
       </c>
       <c r="I2">
-        <v>0.007308422022619165</v>
+        <v>0.002245190443691092</v>
       </c>
       <c r="J2">
-        <v>0.05908350867441703</v>
+        <v>0.009028216876560746</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005028717609074862</v>
+        <v>0.005128089196035912</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.034179414638459E-05</v>
+        <v>1.777513730205627E-06</v>
       </c>
       <c r="E3">
-        <v>0.0003475271253374768</v>
+        <v>5.229874944223667E-07</v>
       </c>
       <c r="F3">
-        <v>0.004262915406137324</v>
+        <v>0.004880424711334541</v>
       </c>
       <c r="G3">
-        <v>0.005106953696461858</v>
+        <v>0.001893804073306748</v>
       </c>
       <c r="H3">
-        <v>0.005726811050846381</v>
+        <v>0.00115287151961474</v>
       </c>
       <c r="I3">
-        <v>0.07032043600425908</v>
+        <v>0.01759002870709381</v>
       </c>
       <c r="J3">
-        <v>0.0002329964007945495</v>
+        <v>0.002430573502898659</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.007001104705730343</v>
+        <v>0.00688459818655196</v>
       </c>
       <c r="C4">
-        <v>1.034179414638459E-05</v>
+        <v>1.777513730205627E-06</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.00103288146616709</v>
+        <v>0.004618698842137725</v>
       </c>
       <c r="F4">
-        <v>0.006224403040201221</v>
+        <v>0.006737870080235853</v>
       </c>
       <c r="G4">
-        <v>0.02237620212689739</v>
+        <v>0.008720112697981897</v>
       </c>
       <c r="H4">
-        <v>0.02740555201311223</v>
+        <v>0.004843571268007496</v>
       </c>
       <c r="I4">
-        <v>0.5212429128041012</v>
+        <v>0.03786198818208564</v>
       </c>
       <c r="J4">
-        <v>0.0003773948068874766</v>
+        <v>0.005525377306554002</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02125018373255627</v>
+        <v>0.007078279598466297</v>
       </c>
       <c r="C5">
-        <v>0.0003475271253374768</v>
+        <v>5.229874944223667E-07</v>
       </c>
       <c r="D5">
-        <v>0.00103288146616709</v>
+        <v>0.004618698842137725</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.02234541566585713</v>
+        <v>0.006947620553277467</v>
       </c>
       <c r="G5">
-        <v>0.1304225603348284</v>
+        <v>0.0100530548520239</v>
       </c>
       <c r="H5">
-        <v>0.05504241534761856</v>
+        <v>0.005709088276528052</v>
       </c>
       <c r="I5">
-        <v>0.03742379444293831</v>
+        <v>0.03991539848207326</v>
       </c>
       <c r="J5">
-        <v>0.002645474255317248</v>
+        <v>0.00596559967690391</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04943003968366444</v>
+        <v>0.01040159672873364</v>
       </c>
       <c r="C6">
-        <v>0.004262915406137324</v>
+        <v>0.004880424711334541</v>
       </c>
       <c r="D6">
-        <v>0.006224403040201221</v>
+        <v>0.006737870080235853</v>
       </c>
       <c r="E6">
-        <v>0.02234541566585713</v>
+        <v>0.006947620553277467</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.005085566982925727</v>
+        <v>0.007778003953395229</v>
       </c>
       <c r="H6">
-        <v>0.004990042767744951</v>
+        <v>0.007990441040222507</v>
       </c>
       <c r="I6">
-        <v>0.006305592455507547</v>
+        <v>0.001770086093375811</v>
       </c>
       <c r="J6">
-        <v>0.084771560727958</v>
+        <v>0.009345537958387773</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005944189703441571</v>
+        <v>0.007860102838727734</v>
       </c>
       <c r="C7">
-        <v>0.005106953696461858</v>
+        <v>0.001893804073306748</v>
       </c>
       <c r="D7">
-        <v>0.02237620212689739</v>
+        <v>0.008720112697981897</v>
       </c>
       <c r="E7">
-        <v>0.1304225603348284</v>
+        <v>0.0100530548520239</v>
       </c>
       <c r="F7">
-        <v>0.005085566982925727</v>
+        <v>0.007778003953395229</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2033400490351587</v>
+        <v>0.7253673670110339</v>
       </c>
       <c r="I7">
-        <v>0.1658016181642061</v>
+        <v>0.1722667013119132</v>
       </c>
       <c r="J7">
-        <v>6.416884939630663E-05</v>
+        <v>0.01182149978227898</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005852768740049141</v>
+        <v>0.008047373663305102</v>
       </c>
       <c r="C8">
-        <v>0.005726811050846381</v>
+        <v>0.00115287151961474</v>
       </c>
       <c r="D8">
-        <v>0.02740555201311223</v>
+        <v>0.004843571268007496</v>
       </c>
       <c r="E8">
-        <v>0.05504241534761856</v>
+        <v>0.005709088276528052</v>
       </c>
       <c r="F8">
-        <v>0.004990042767744951</v>
+        <v>0.007990441040222507</v>
       </c>
       <c r="G8">
-        <v>0.2033400490351587</v>
+        <v>0.7253673670110339</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.2342488368558631</v>
+        <v>0.1795951180028514</v>
       </c>
       <c r="J8">
-        <v>4.066635277721886E-05</v>
+        <v>0.01453943876118347</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.007308422022619165</v>
+        <v>0.002245190443691092</v>
       </c>
       <c r="C9">
-        <v>0.07032043600425908</v>
+        <v>0.01759002870709381</v>
       </c>
       <c r="D9">
-        <v>0.5212429128041012</v>
+        <v>0.03786198818208564</v>
       </c>
       <c r="E9">
-        <v>0.03742379444293831</v>
+        <v>0.03991539848207326</v>
       </c>
       <c r="F9">
-        <v>0.006305592455507547</v>
+        <v>0.001770086093375811</v>
       </c>
       <c r="G9">
-        <v>0.1658016181642061</v>
+        <v>0.1722667013119132</v>
       </c>
       <c r="H9">
-        <v>0.2342488368558631</v>
+        <v>0.1795951180028514</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.001303516221026868</v>
+        <v>0.1153771826715262</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05908350867441703</v>
+        <v>0.009028216876560746</v>
       </c>
       <c r="C10">
-        <v>0.0002329964007945495</v>
+        <v>0.002430573502898659</v>
       </c>
       <c r="D10">
-        <v>0.0003773948068874766</v>
+        <v>0.005525377306554002</v>
       </c>
       <c r="E10">
-        <v>0.002645474255317248</v>
+        <v>0.00596559967690391</v>
       </c>
       <c r="F10">
-        <v>0.084771560727958</v>
+        <v>0.009345537958387773</v>
       </c>
       <c r="G10">
-        <v>6.416884939630663E-05</v>
+        <v>0.01182149978227898</v>
       </c>
       <c r="H10">
-        <v>4.066635277721886E-05</v>
+        <v>0.01453943876118347</v>
       </c>
       <c r="I10">
-        <v>0.001303516221026868</v>
+        <v>0.1153771826715262</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.116377831448006</v>
+        <v>2.992171206391513</v>
       </c>
       <c r="D2">
-        <v>2.974159401053307</v>
+        <v>2.877191232589715</v>
       </c>
       <c r="E2">
-        <v>2.480537185164833</v>
+        <v>2.866255708253428</v>
       </c>
       <c r="F2">
-        <v>2.079533862214786</v>
+        <v>2.712480010971477</v>
       </c>
       <c r="G2">
-        <v>3.044716695131391</v>
+        <v>2.824787436048123</v>
       </c>
       <c r="H2">
-        <v>3.051376050698078</v>
+        <v>2.815429310536433</v>
       </c>
       <c r="I2">
-        <v>2.955561379033963</v>
+        <v>3.305082728431596</v>
       </c>
       <c r="J2">
-        <v>1.990661243152962</v>
+        <v>2.769511190238495</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.116377831448006</v>
+        <v>-2.992171206391513</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.67964545923587</v>
+        <v>-5.757757002322774</v>
       </c>
       <c r="E3">
-        <v>-4.225869615018513</v>
+        <v>-6.167160391411893</v>
       </c>
       <c r="F3">
-        <v>-3.186761764257116</v>
+        <v>-3.011302273359697</v>
       </c>
       <c r="G3">
-        <v>-3.109780918826911</v>
+        <v>-3.368078924432551</v>
       </c>
       <c r="H3">
-        <v>-3.060717104569447</v>
+        <v>-3.549361870331364</v>
       </c>
       <c r="I3">
-        <v>-1.902179684934643</v>
+        <v>-2.495579005954385</v>
       </c>
       <c r="J3">
-        <v>-4.389490135705872</v>
+        <v>-3.275560080577095</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.974159401053307</v>
+        <v>-2.877191232589715</v>
       </c>
       <c r="C4">
-        <v>5.67964545923587</v>
+        <v>5.757757002322774</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.778793017094997</v>
+        <v>-3.032542980666402</v>
       </c>
       <c r="F4">
-        <v>-3.024902456076612</v>
+        <v>-2.885669542540158</v>
       </c>
       <c r="G4">
-        <v>-2.456782607457124</v>
+        <v>-2.783411533962511</v>
       </c>
       <c r="H4">
-        <v>-2.362636269252887</v>
+        <v>-3.014227102138854</v>
       </c>
       <c r="I4">
-        <v>-0.6518618050328975</v>
+        <v>-2.160610297491102</v>
       </c>
       <c r="J4">
-        <v>-4.192119868523634</v>
+        <v>-2.963231323092181</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.480537185164833</v>
+        <v>-2.866255708253428</v>
       </c>
       <c r="C5">
-        <v>4.225869615018513</v>
+        <v>6.167160391411893</v>
       </c>
       <c r="D5">
-        <v>3.778793017094997</v>
+        <v>3.032542980666402</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.457417157072955</v>
+        <v>-2.873601576605922</v>
       </c>
       <c r="G5">
-        <v>1.571139172864607</v>
+        <v>-2.726258216500673</v>
       </c>
       <c r="H5">
-        <v>2.02616217426285</v>
+        <v>-2.95050678917848</v>
       </c>
       <c r="I5">
-        <v>2.214968684321045</v>
+        <v>-2.136548939990837</v>
       </c>
       <c r="J5">
-        <v>-3.388081490838152</v>
+        <v>-2.933370195391573</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.079533862214786</v>
+        <v>-2.712480010971477</v>
       </c>
       <c r="C6">
-        <v>3.186761764257116</v>
+        <v>3.011302273359697</v>
       </c>
       <c r="D6">
-        <v>3.024902456076612</v>
+        <v>2.885669542540158</v>
       </c>
       <c r="E6">
-        <v>2.457417157072955</v>
+        <v>2.873601576605922</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.111574516354902</v>
+        <v>2.828955919500598</v>
       </c>
       <c r="H6">
-        <v>3.119675605408095</v>
+        <v>2.818252563442902</v>
       </c>
       <c r="I6">
-        <v>3.01932165680969</v>
+        <v>3.392960727512163</v>
       </c>
       <c r="J6">
-        <v>1.805059303861617</v>
+        <v>2.755649890664652</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-3.044716695131391</v>
+        <v>-2.824787436048123</v>
       </c>
       <c r="C7">
-        <v>3.109780918826911</v>
+        <v>3.368078924432551</v>
       </c>
       <c r="D7">
-        <v>2.456782607457124</v>
+        <v>2.783411533962511</v>
       </c>
       <c r="E7">
-        <v>-1.571139172864607</v>
+        <v>2.726258216500673</v>
       </c>
       <c r="F7">
-        <v>-3.111574516354902</v>
+        <v>-2.828955919500598</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.311114057127361</v>
+        <v>-0.3542120799560295</v>
       </c>
       <c r="I7">
-        <v>1.433406177592324</v>
+        <v>-1.394318294853598</v>
       </c>
       <c r="J7">
-        <v>-4.918638627767542</v>
+        <v>-2.66044969655022</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.051376050698078</v>
+        <v>-2.815429310536433</v>
       </c>
       <c r="C8">
-        <v>3.060717104569447</v>
+        <v>3.549361870331364</v>
       </c>
       <c r="D8">
-        <v>2.362636269252887</v>
+        <v>3.014227102138854</v>
       </c>
       <c r="E8">
-        <v>-2.02616217426285</v>
+        <v>2.95050678917848</v>
       </c>
       <c r="F8">
-        <v>-3.119675605408095</v>
+        <v>-2.818252563442902</v>
       </c>
       <c r="G8">
-        <v>-1.311114057127361</v>
+        <v>0.3542120799560295</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.223055507014901</v>
+        <v>-1.370231099814773</v>
       </c>
       <c r="J8">
-        <v>-5.107079812482137</v>
+        <v>-2.575244171376616</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.955561379033963</v>
+        <v>-3.305082728431596</v>
       </c>
       <c r="C9">
-        <v>1.902179684934643</v>
+        <v>2.495579005954385</v>
       </c>
       <c r="D9">
-        <v>0.6518618050328975</v>
+        <v>2.160610297491102</v>
       </c>
       <c r="E9">
-        <v>-2.214968684321045</v>
+        <v>2.136548939990837</v>
       </c>
       <c r="F9">
-        <v>-3.01932165680969</v>
+        <v>-3.392960727512163</v>
       </c>
       <c r="G9">
-        <v>-1.433406177592324</v>
+        <v>1.394318294853598</v>
       </c>
       <c r="H9">
-        <v>-1.223055507014901</v>
+        <v>1.370231099814773</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-3.682690064078619</v>
+        <v>-1.615814646067888</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.990661243152962</v>
+        <v>-2.769511190238495</v>
       </c>
       <c r="C10">
-        <v>4.389490135705872</v>
+        <v>3.275560080577095</v>
       </c>
       <c r="D10">
-        <v>4.192119868523634</v>
+        <v>2.963231323092181</v>
       </c>
       <c r="E10">
-        <v>3.388081490838152</v>
+        <v>2.933370195391573</v>
       </c>
       <c r="F10">
-        <v>-1.805059303861617</v>
+        <v>-2.755649890664652</v>
       </c>
       <c r="G10">
-        <v>4.918638627767542</v>
+        <v>2.66044969655022</v>
       </c>
       <c r="H10">
-        <v>5.107079812482137</v>
+        <v>2.575244171376616</v>
       </c>
       <c r="I10">
-        <v>3.682690064078619</v>
+        <v>1.615814646067888</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1452,92 +1452,92 @@
         <v>37.5</v>
       </c>
       <c r="F2">
-        <v>0.5790214985339739</v>
+        <v>0.5724119201840667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7764851498794437</v>
+        <v>4.5231808073141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8768703123610273</v>
+        <v>0.8376914854236106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.137502484051251</v>
+        <v>0.8456505654507867</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.178219531125906</v>
+        <v>4.200855921370634</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1552,32 +1552,32 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.955455533854199</v>
+        <v>1.493714502735786</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.39167447515791</v>
+        <v>1.514704241553418</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.721817742286819</v>
+        <v>1.960225584628323</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.026130632456591</v>
+        <v>2.195635637814436</v>
       </c>
     </row>
   </sheetData>
